--- a/collection_data_dictionary_v3.xlsx
+++ b/collection_data_dictionary_v3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/repos/easyfulcrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379AF0D-3AB9-CA4A-A0CC-0F4D3482B997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E3B288-E617-7C4C-8956-7895CFBE1219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="460" windowWidth="31300" windowHeight="20140" xr2:uid="{89EDBE6F-D649-2C47-B9B8-5FFDEB3898C0}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="257">
   <si>
     <t>isolation_by</t>
   </si>
@@ -144,12 +147,6 @@
     <t>latitude of collection from fulcrum</t>
   </si>
   <si>
-    <t>longitude of collection from photo</t>
-  </si>
-  <si>
-    <t>Haversine distance between photo and fulcrum lat and long</t>
-  </si>
-  <si>
     <t>collection_lat_long_method</t>
   </si>
   <si>
@@ -165,30 +162,15 @@
     <t>gridsect data</t>
   </si>
   <si>
-    <t>island where collected</t>
-  </si>
-  <si>
     <t>location where collected</t>
   </si>
   <si>
-    <t>ambient humidity at collection site</t>
-  </si>
-  <si>
-    <t>ambient temperature at collection site</t>
-  </si>
-  <si>
-    <t>substrate temperature for collection</t>
-  </si>
-  <si>
     <t>altitude</t>
   </si>
   <si>
     <t>altitude_method</t>
   </si>
   <si>
-    <t>altitude choosen to assign to collection</t>
-  </si>
-  <si>
     <t>landscape at collection site</t>
   </si>
   <si>
@@ -201,9 +183,6 @@
     <t>more detail on substrate collected</t>
   </si>
   <si>
-    <t xml:space="preserve">even more detail on substrate collected. </t>
-  </si>
-  <si>
     <t>the radius from the center of the gridsect in meters</t>
   </si>
   <si>
@@ -216,15 +195,9 @@
     <t>logical, is this collection part of a gridsect</t>
   </si>
   <si>
-    <t>The data used to get lat and long for the collection (Photo or fulcrum). Photo is in many cases more reliable</t>
-  </si>
-  <si>
     <t>lysis_date</t>
   </si>
   <si>
-    <t>pcr_date</t>
-  </si>
-  <si>
     <t>isolation_local_time</t>
   </si>
   <si>
@@ -270,27 +243,12 @@
     <t>species identified by ITS2 sequence homology</t>
   </si>
   <si>
-    <t>shipment_id</t>
-  </si>
-  <si>
-    <t>shipment_box_id</t>
-  </si>
-  <si>
     <t>data type</t>
   </si>
   <si>
-    <t>logical, looks to see if temperature is the same across back to back collections. Temperature probe can stick so these flagged data may not be accurate</t>
-  </si>
-  <si>
     <t>The unique project id for the collection trip</t>
   </si>
   <si>
-    <t>A unique shipment  id for the collection trip</t>
-  </si>
-  <si>
-    <t>A unique shipment box id for the collection trip</t>
-  </si>
-  <si>
     <t>the email address of the person that entered the isolation into fulcrum</t>
   </si>
   <si>
@@ -306,15 +264,9 @@
     <t>collection_trail</t>
   </si>
   <si>
-    <t>the method choosen to assign altitude</t>
-  </si>
-  <si>
     <t>altitude_methods_range</t>
   </si>
   <si>
-    <t xml:space="preserve">range of altitudes separated by commas in the following order fulcrum_altitude (generated from fulcrum record creation, exif_gps_altitude (generated from collection photo metadata), geonames_altitude (generated by geonames package using collection_latitude and collection_longitude as input) </t>
-  </si>
-  <si>
     <t>sample_photo_url</t>
   </si>
   <si>
@@ -330,9 +282,6 @@
     <t>Any relevant notes about isolation during the genotyping process</t>
   </si>
   <si>
-    <t>genoytping_notes</t>
-  </si>
-  <si>
     <t>proliferation_48</t>
   </si>
   <si>
@@ -357,16 +306,10 @@
     <t>the date the last lysis was performed on the isolation plate (s-plate).</t>
   </si>
   <si>
-    <t xml:space="preserve">the date the last pcr was conducted using the lysis material. </t>
-  </si>
-  <si>
     <t>boolean, if there is an approximately 1.5kb band for ITS2 primer set PCR then 1, if no band then 0.</t>
   </si>
   <si>
     <t>boolean, if there is an approximately 500bp band for the SSU primer PCR then 1, if no band then 0. A value of 0 likely means that the lysis material is of poor quality.</t>
-  </si>
-  <si>
-    <t>its2_blast_notes</t>
   </si>
   <si>
     <r>
@@ -404,6 +347,393 @@
     <t>trail where collected</t>
   </si>
   <si>
+    <t>Columns:</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt;</t>
+  </si>
+  <si>
+    <t>2020FebruaryAustralia,</t>
+  </si>
+  <si>
+    <t>2020FebruaryAustralia…</t>
+  </si>
+  <si>
+    <t>C-5737,</t>
+  </si>
+  <si>
+    <t>C-5953,</t>
+  </si>
+  <si>
+    <t>C-5954,</t>
+  </si>
+  <si>
+    <t>C-…</t>
+  </si>
+  <si>
+    <t>S-12906,</t>
+  </si>
+  <si>
+    <t>S-12855,</t>
+  </si>
+  <si>
+    <t>S-12914,</t>
+  </si>
+  <si>
+    <t>S-12913,</t>
+  </si>
+  <si>
+    <t>S-12953,</t>
+  </si>
+  <si>
+    <t>S-12856,</t>
+  </si>
+  <si>
+    <t>S-12954,</t>
+  </si>
+  <si>
+    <t>S-12905,</t>
+  </si>
+  <si>
+    <t>S-12926,</t>
+  </si>
+  <si>
+    <t>S-12925,</t>
+  </si>
+  <si>
+    <t>S-12956,</t>
+  </si>
+  <si>
+    <t>S…</t>
+  </si>
+  <si>
+    <t>NA,</t>
+  </si>
+  <si>
+    <t>C. elegans,</t>
+  </si>
+  <si>
+    <t>C. elegans,…</t>
+  </si>
+  <si>
+    <t>&lt;lgl&gt;</t>
+  </si>
+  <si>
+    <t>NA,…</t>
+  </si>
+  <si>
+    <t>ECA2651,</t>
+  </si>
+  <si>
+    <t>ECA2579,</t>
+  </si>
+  <si>
+    <t>ECA2561,</t>
+  </si>
+  <si>
+    <t>ECA2580,</t>
+  </si>
+  <si>
+    <t>ECA2570,</t>
+  </si>
+  <si>
+    <t>ECA2577,</t>
+  </si>
+  <si>
+    <t>ECA2574,</t>
+  </si>
+  <si>
+    <t>E…</t>
+  </si>
+  <si>
+    <t>lewis.stevens07@gmail.com,</t>
+  </si>
+  <si>
+    <t>erik.andersen@northwestern.edu,</t>
+  </si>
+  <si>
+    <t>erik.andersen@northwestern.edu…</t>
+  </si>
+  <si>
+    <t>&lt;dttm&gt;</t>
+  </si>
+  <si>
+    <t>03:21:44,</t>
+  </si>
+  <si>
+    <t>03:33:01,</t>
+  </si>
+  <si>
+    <t>03:33:…</t>
+  </si>
+  <si>
+    <t>&lt;date&gt;</t>
+  </si>
+  <si>
+    <t>2020-02-19,</t>
+  </si>
+  <si>
+    <t>2020-02-16,</t>
+  </si>
+  <si>
+    <t>20…</t>
+  </si>
+  <si>
+    <t>&lt;time&gt;</t>
+  </si>
+  <si>
+    <t>14:21:00,</t>
+  </si>
+  <si>
+    <t>14:33:00,</t>
+  </si>
+  <si>
+    <t>14:34:00,</t>
+  </si>
+  <si>
+    <t>14…</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;</t>
+  </si>
+  <si>
+    <t>-38.51806,</t>
+  </si>
+  <si>
+    <t>-37.82700,</t>
+  </si>
+  <si>
+    <t>-37.82740,</t>
+  </si>
+  <si>
+    <t>-3…</t>
+  </si>
+  <si>
+    <t>143.9439,</t>
+  </si>
+  <si>
+    <t>144.9799,</t>
+  </si>
+  <si>
+    <t>144.9801,</t>
+  </si>
+  <si>
+    <t>144…</t>
+  </si>
+  <si>
+    <t>-38.51812,</t>
+  </si>
+  <si>
+    <t>-37.82741,</t>
+  </si>
+  <si>
+    <t>143.9438,</t>
+  </si>
+  <si>
+    <t>photo,</t>
+  </si>
+  <si>
+    <t>photo…</t>
+  </si>
+  <si>
+    <t>12.9720788705034,</t>
+  </si>
+  <si>
+    <t>0.0000003072791,</t>
+  </si>
+  <si>
+    <t>0.…</t>
+  </si>
+  <si>
+    <t>16.7,</t>
+  </si>
+  <si>
+    <t>26.2,</t>
+  </si>
+  <si>
+    <t>25.6,</t>
+  </si>
+  <si>
+    <t>22.…</t>
+  </si>
+  <si>
+    <t>FALSE,</t>
+  </si>
+  <si>
+    <t>FALS…</t>
+  </si>
+  <si>
+    <t>85.5,</t>
+  </si>
+  <si>
+    <t>58.5,</t>
+  </si>
+  <si>
+    <t>60.0,</t>
+  </si>
+  <si>
+    <t>57.4,</t>
+  </si>
+  <si>
+    <t>62.…</t>
+  </si>
+  <si>
+    <t>15.6,</t>
+  </si>
+  <si>
+    <t>22.3,</t>
+  </si>
+  <si>
+    <t>20.3,</t>
+  </si>
+  <si>
+    <t>21.2,</t>
+  </si>
+  <si>
+    <t>18.…</t>
+  </si>
+  <si>
+    <t>157.579145,</t>
+  </si>
+  <si>
+    <t>4.434845,</t>
+  </si>
+  <si>
+    <t>12.830139,</t>
+  </si>
+  <si>
+    <t>12.830…</t>
+  </si>
+  <si>
+    <t>Forest,</t>
+  </si>
+  <si>
+    <t>Botanical_garden_or_zoo,</t>
+  </si>
+  <si>
+    <t>Botanical_garden_or_z…</t>
+  </si>
+  <si>
+    <t>Partially Obstructed,</t>
+  </si>
+  <si>
+    <t>Pa…</t>
+  </si>
+  <si>
+    <t>Rotting_nut/pod/seed/fruit,</t>
+  </si>
+  <si>
+    <t>Rotting_flower,</t>
+  </si>
+  <si>
+    <t>Rotting_…</t>
+  </si>
+  <si>
+    <t>Leaf litter,</t>
+  </si>
+  <si>
+    <t>N…</t>
+  </si>
+  <si>
+    <t>https://web.fulcrumapp.com/photos/view?photos=1adde149-b957-4f70-9c58-8d2bea35517c,</t>
+  </si>
+  <si>
+    <t>https://web.fulcrumapp.com/photos/vi…</t>
+  </si>
+  <si>
+    <t>no,</t>
+  </si>
+  <si>
+    <t>no…</t>
+  </si>
+  <si>
+    <t>claire.buchanan@northwestern.edu,</t>
+  </si>
+  <si>
+    <t>claire.buchana…</t>
+  </si>
+  <si>
+    <t>2020-02-28 13:38:13 UTC,</t>
+  </si>
+  <si>
+    <t>2020-02-28 13:47:17 UTC,</t>
+  </si>
+  <si>
+    <t>2020-02-28 13:…</t>
+  </si>
+  <si>
+    <t>2020-02-28,</t>
+  </si>
+  <si>
+    <t>07:34:00,</t>
+  </si>
+  <si>
+    <t>07:38:00,</t>
+  </si>
+  <si>
+    <t>07:43:00,</t>
+  </si>
+  <si>
+    <t>07…</t>
+  </si>
+  <si>
+    <t>42.05650,</t>
+  </si>
+  <si>
+    <t>42.05649,</t>
+  </si>
+  <si>
+    <t>42.05651,</t>
+  </si>
+  <si>
+    <t>42.05651,…</t>
+  </si>
+  <si>
+    <t>-87.67366,</t>
+  </si>
+  <si>
+    <t>-87.67367,</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Yes,</t>
+  </si>
+  <si>
+    <t>Yes…</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>1,…</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>Very Few (1-3),</t>
+  </si>
+  <si>
+    <t>Proliferating (25+),</t>
+  </si>
+  <si>
+    <t>Proliferating (25…</t>
+  </si>
+  <si>
+    <t>1…</t>
+  </si>
+  <si>
+    <t>general_notes</t>
+  </si>
+  <si>
+    <t>manual_blast_notes</t>
+  </si>
+  <si>
     <t>possible_new_caeno_sp</t>
   </si>
   <si>
@@ -434,7 +764,70 @@
     <t>the email address of the person that entered the collection info into fulcrum</t>
   </si>
   <si>
-    <t xml:space="preserve">the unique strain name for this isolation </t>
+    <t>2020-02-24,</t>
+  </si>
+  <si>
+    <t>2020-02-26,</t>
+  </si>
+  <si>
+    <t>2020-03-17,</t>
+  </si>
+  <si>
+    <t>2020-03-02,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range of altitudes separated by commas in the following order (1) exif_gps_altitude (generated from collection photo metadata) (2) fulcrum_altitude (generated from fulcrum record creation, (3) geonames_altitude (generated by geonames package using collection_latitude and collection_longitude as input). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the unique strain name for the isolation </t>
+  </si>
+  <si>
+    <t>island where collected, if from Hawaii</t>
+  </si>
+  <si>
+    <t>longitude of collection from fulcrum</t>
+  </si>
+  <si>
+    <t>The method used to get lat and long for the collection (Photo or fulcrum). Photo is perfered.</t>
+  </si>
+  <si>
+    <t>Haversine distance between photo and fulcrum lat and long (meters)</t>
+  </si>
+  <si>
+    <t>ambient temperature at collection site (celsius)</t>
+  </si>
+  <si>
+    <t>logical, looks to see if temperature is the same across back to back collections. Temperature probe can stick so these flagged data may not be accurate.</t>
+  </si>
+  <si>
+    <t>ambient humidity at collection site (celsius)</t>
+  </si>
+  <si>
+    <t>substrate temperature for collection (celsius)</t>
+  </si>
+  <si>
+    <t>altitude choosen to assign to collection (meters)</t>
+  </si>
+  <si>
+    <t>the method choosen to assign altitude. Methods include fulcrum altitude, photo gps altitude (AKA exif gps altitude), geonames altitude (from genonames package).</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>should we have this variable?</t>
+  </si>
+  <si>
+    <t>need geonames code</t>
+  </si>
+  <si>
+    <t>need geonames code. Currrently not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even more detail on substrate collected </t>
+  </si>
+  <si>
+    <t>currently points to fulcrum. we might want to include a custom url and place to hold the image so we can plot it easier</t>
   </si>
 </sst>
 </file>
@@ -548,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -561,7 +954,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D729D226-31F5-4F49-B319-E29A5697C06C}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,440 +1283,456 @@
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="150.1640625" customWidth="1"/>
+    <col min="4" max="4" width="101.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C21" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="D25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>95</v>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>89</v>
+      <c r="A45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>106</v>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>87</v>
@@ -1329,118 +1741,3689 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FED5957-069A-A84C-9304-5F727919ACEF}">
+  <dimension ref="A1:AS56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="K4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9" t="s">
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="9" t="s">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="I6" t="s">
         <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" t="s">
+        <v>117</v>
+      </c>
+      <c r="V6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43880</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43880</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43877</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="10">
+        <v>43877</v>
+      </c>
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="10">
+        <v>43877</v>
+      </c>
+      <c r="M8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="10">
+        <v>43877</v>
+      </c>
+      <c r="O8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11" t="s">
+        <v>117</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S12" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U12" t="s">
+        <v>117</v>
+      </c>
+      <c r="V12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" t="s">
+        <v>117</v>
+      </c>
+      <c r="U13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" t="s">
+        <v>165</v>
+      </c>
+      <c r="V20" t="s">
+        <v>165</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" t="s">
+        <v>167</v>
+      </c>
+      <c r="U21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>171</v>
+      </c>
+      <c r="P22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>171</v>
+      </c>
+      <c r="R22" t="s">
+        <v>172</v>
+      </c>
+      <c r="S22" t="s">
+        <v>172</v>
+      </c>
+      <c r="T22" t="s">
+        <v>172</v>
+      </c>
+      <c r="U22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23" t="s">
+        <v>177</v>
+      </c>
+      <c r="T23" t="s">
+        <v>177</v>
+      </c>
+      <c r="U23" t="s">
+        <v>177</v>
+      </c>
+      <c r="V23" t="s">
+        <v>177</v>
+      </c>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T29" t="s">
+        <v>117</v>
+      </c>
+      <c r="U29" t="s">
+        <v>117</v>
+      </c>
+      <c r="V29" t="s">
+        <v>117</v>
+      </c>
+      <c r="W29" t="s">
+        <v>117</v>
+      </c>
+      <c r="X29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>191</v>
+      </c>
+      <c r="R30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" t="s">
+        <v>195</v>
+      </c>
+      <c r="M32" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>195</v>
+      </c>
+      <c r="R32" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" t="s">
+        <v>195</v>
+      </c>
+      <c r="U32" t="s">
+        <v>195</v>
+      </c>
+      <c r="V32" t="s">
+        <v>195</v>
+      </c>
+      <c r="W32" t="s">
+        <v>195</v>
+      </c>
+      <c r="X32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" t="s">
+        <v>117</v>
+      </c>
+      <c r="T33" t="s">
+        <v>117</v>
+      </c>
+      <c r="U33" t="s">
+        <v>117</v>
+      </c>
+      <c r="V33" t="s">
+        <v>117</v>
+      </c>
+      <c r="W33" t="s">
+        <v>117</v>
+      </c>
+      <c r="X33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>117</v>
+      </c>
+      <c r="R34" t="s">
+        <v>117</v>
+      </c>
+      <c r="S34" t="s">
+        <v>117</v>
+      </c>
+      <c r="T34" t="s">
+        <v>117</v>
+      </c>
+      <c r="U34" t="s">
+        <v>117</v>
+      </c>
+      <c r="V34" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" t="s">
+        <v>117</v>
+      </c>
+      <c r="X34" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>117</v>
+      </c>
+      <c r="R35" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" t="s">
+        <v>117</v>
+      </c>
+      <c r="T35" t="s">
+        <v>117</v>
+      </c>
+      <c r="U35" t="s">
+        <v>117</v>
+      </c>
+      <c r="V35" t="s">
+        <v>117</v>
+      </c>
+      <c r="W35" t="s">
+        <v>117</v>
+      </c>
+      <c r="X35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s">
+        <v>202</v>
+      </c>
+      <c r="M38" t="s">
+        <v>202</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" t="s">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
+      <c r="O39" t="s">
+        <v>205</v>
+      </c>
+      <c r="P39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="s">
+        <v>208</v>
+      </c>
+      <c r="O40" t="s">
+        <v>208</v>
+      </c>
+      <c r="P40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>208</v>
+      </c>
+      <c r="R40" t="s">
+        <v>209</v>
+      </c>
+      <c r="S40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" t="s">
+        <v>212</v>
+      </c>
+      <c r="N41" t="s">
+        <v>212</v>
+      </c>
+      <c r="O41" t="s">
+        <v>212</v>
+      </c>
+      <c r="P41" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>212</v>
+      </c>
+      <c r="R41" t="s">
+        <v>211</v>
+      </c>
+      <c r="S41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" t="s">
+        <v>214</v>
+      </c>
+      <c r="M42" t="s">
+        <v>214</v>
+      </c>
+      <c r="N42" t="s">
+        <v>214</v>
+      </c>
+      <c r="O42" t="s">
+        <v>214</v>
+      </c>
+      <c r="P42" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>214</v>
+      </c>
+      <c r="R42" t="s">
+        <v>214</v>
+      </c>
+      <c r="S42" t="s">
+        <v>214</v>
+      </c>
+      <c r="T42" t="s">
+        <v>214</v>
+      </c>
+      <c r="U42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" t="s">
+        <v>235</v>
+      </c>
+      <c r="I44" t="s">
+        <v>235</v>
+      </c>
+      <c r="J44" t="s">
+        <v>235</v>
+      </c>
+      <c r="K44" t="s">
+        <v>235</v>
+      </c>
+      <c r="L44" t="s">
+        <v>235</v>
+      </c>
+      <c r="M44" t="s">
+        <v>235</v>
+      </c>
+      <c r="N44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" t="s">
+        <v>236</v>
+      </c>
+      <c r="J45" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" t="s">
+        <v>236</v>
+      </c>
+      <c r="L45" t="s">
+        <v>236</v>
+      </c>
+      <c r="M45" t="s">
+        <v>236</v>
+      </c>
+      <c r="N45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" t="s">
+        <v>216</v>
+      </c>
+      <c r="J46" t="s">
+        <v>216</v>
+      </c>
+      <c r="K46" t="s">
+        <v>216</v>
+      </c>
+      <c r="L46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" t="s">
+        <v>216</v>
+      </c>
+      <c r="N46" t="s">
+        <v>216</v>
+      </c>
+      <c r="O46" t="s">
+        <v>216</v>
+      </c>
+      <c r="P46" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>216</v>
+      </c>
+      <c r="R46" t="s">
+        <v>216</v>
+      </c>
+      <c r="S46" t="s">
+        <v>216</v>
+      </c>
+      <c r="T46" t="s">
+        <v>216</v>
+      </c>
+      <c r="U46" t="s">
+        <v>216</v>
+      </c>
+      <c r="V46" t="s">
+        <v>216</v>
+      </c>
+      <c r="W46" t="s">
+        <v>216</v>
+      </c>
+      <c r="X46" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" t="s">
+        <v>216</v>
+      </c>
+      <c r="M47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R47" t="s">
+        <v>117</v>
+      </c>
+      <c r="S47" t="s">
+        <v>117</v>
+      </c>
+      <c r="T47" t="s">
+        <v>117</v>
+      </c>
+      <c r="U47" t="s">
+        <v>117</v>
+      </c>
+      <c r="V47" t="s">
+        <v>117</v>
+      </c>
+      <c r="W47" t="s">
+        <v>117</v>
+      </c>
+      <c r="X47" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" t="s">
+        <v>216</v>
+      </c>
+      <c r="J48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" t="s">
+        <v>216</v>
+      </c>
+      <c r="M48" t="s">
+        <v>216</v>
+      </c>
+      <c r="N48" t="s">
+        <v>216</v>
+      </c>
+      <c r="O48" t="s">
+        <v>216</v>
+      </c>
+      <c r="P48" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>216</v>
+      </c>
+      <c r="R48" t="s">
+        <v>216</v>
+      </c>
+      <c r="S48" t="s">
+        <v>216</v>
+      </c>
+      <c r="T48" t="s">
+        <v>216</v>
+      </c>
+      <c r="U48" t="s">
+        <v>216</v>
+      </c>
+      <c r="V48" t="s">
+        <v>216</v>
+      </c>
+      <c r="W48" t="s">
+        <v>216</v>
+      </c>
+      <c r="X48" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K49" t="s">
+        <v>238</v>
+      </c>
+      <c r="L49" t="s">
+        <v>237</v>
+      </c>
+      <c r="M49" t="s">
+        <v>238</v>
+      </c>
+      <c r="N49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" t="s">
+        <v>216</v>
+      </c>
+      <c r="J50" t="s">
+        <v>216</v>
+      </c>
+      <c r="K50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" t="s">
+        <v>218</v>
+      </c>
+      <c r="O50" t="s">
+        <v>218</v>
+      </c>
+      <c r="P50" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>218</v>
+      </c>
+      <c r="R50" t="s">
+        <v>218</v>
+      </c>
+      <c r="S50" t="s">
+        <v>216</v>
+      </c>
+      <c r="T50" t="s">
+        <v>216</v>
+      </c>
+      <c r="U50" t="s">
+        <v>218</v>
+      </c>
+      <c r="V50" t="s">
+        <v>216</v>
+      </c>
+      <c r="W50" t="s">
+        <v>216</v>
+      </c>
+      <c r="X50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" t="s">
+        <v>216</v>
+      </c>
+      <c r="K51" t="s">
+        <v>216</v>
+      </c>
+      <c r="L51" t="s">
+        <v>216</v>
+      </c>
+      <c r="M51" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" t="s">
+        <v>216</v>
+      </c>
+      <c r="O51" t="s">
+        <v>216</v>
+      </c>
+      <c r="P51" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>216</v>
+      </c>
+      <c r="R51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S51" t="s">
+        <v>216</v>
+      </c>
+      <c r="T51" t="s">
+        <v>216</v>
+      </c>
+      <c r="U51" t="s">
+        <v>216</v>
+      </c>
+      <c r="V51" t="s">
+        <v>216</v>
+      </c>
+      <c r="W51" t="s">
+        <v>216</v>
+      </c>
+      <c r="X51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" t="s">
+        <v>117</v>
+      </c>
+      <c r="L52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" t="s">
+        <v>117</v>
+      </c>
+      <c r="O52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>117</v>
+      </c>
+      <c r="R52" t="s">
+        <v>117</v>
+      </c>
+      <c r="S52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T52" t="s">
+        <v>117</v>
+      </c>
+      <c r="U52" t="s">
+        <v>117</v>
+      </c>
+      <c r="V52" t="s">
+        <v>117</v>
+      </c>
+      <c r="W52" t="s">
+        <v>117</v>
+      </c>
+      <c r="X52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53" t="s">
+        <v>117</v>
+      </c>
+      <c r="L53" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" t="s">
+        <v>117</v>
+      </c>
+      <c r="O53" t="s">
+        <v>117</v>
+      </c>
+      <c r="P53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>117</v>
+      </c>
+      <c r="R53" t="s">
+        <v>117</v>
+      </c>
+      <c r="S53" t="s">
+        <v>117</v>
+      </c>
+      <c r="T53" t="s">
+        <v>117</v>
+      </c>
+      <c r="U53" t="s">
+        <v>117</v>
+      </c>
+      <c r="V53" t="s">
+        <v>117</v>
+      </c>
+      <c r="W53" t="s">
+        <v>117</v>
+      </c>
+      <c r="X53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" t="s">
+        <v>117</v>
+      </c>
+      <c r="O54" t="s">
+        <v>117</v>
+      </c>
+      <c r="P54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>117</v>
+      </c>
+      <c r="R54" t="s">
+        <v>117</v>
+      </c>
+      <c r="S54" t="s">
+        <v>117</v>
+      </c>
+      <c r="T54" t="s">
+        <v>117</v>
+      </c>
+      <c r="U54" t="s">
+        <v>117</v>
+      </c>
+      <c r="V54" t="s">
+        <v>117</v>
+      </c>
+      <c r="W54" t="s">
+        <v>117</v>
+      </c>
+      <c r="X54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" t="s">
+        <v>216</v>
+      </c>
+      <c r="J55" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" t="s">
+        <v>216</v>
+      </c>
+      <c r="L55" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" t="s">
+        <v>117</v>
+      </c>
+      <c r="O55" t="s">
+        <v>117</v>
+      </c>
+      <c r="P55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>117</v>
+      </c>
+      <c r="R55" t="s">
+        <v>117</v>
+      </c>
+      <c r="S55" t="s">
+        <v>216</v>
+      </c>
+      <c r="T55" t="s">
+        <v>216</v>
+      </c>
+      <c r="U55" t="s">
+        <v>117</v>
+      </c>
+      <c r="V55" t="s">
+        <v>216</v>
+      </c>
+      <c r="W55" t="s">
+        <v>216</v>
+      </c>
+      <c r="X55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
